--- a/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/40/Output_8_28.xlsx
+++ b/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/40/Output_8_28.xlsx
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>18061.92770780554</v>
+        <v>3594323.613853303</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>18061.92770780554</v>
+        <v>3594323.613853303</v>
       </c>
     </row>
     <row r="9">
@@ -531,7 +531,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>46799.04452447101</v>
+        <v>3291904.983456292</v>
       </c>
     </row>
     <row r="10">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>46799.04452447101</v>
+        <v>3291904.983456292</v>
       </c>
     </row>
     <row r="11">
@@ -561,7 +561,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1610074769.78071</v>
+        <v>63051188.37967488</v>
       </c>
     </row>
   </sheetData>
@@ -26131,7 +26131,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>13757.56214238879</v>
+        <v>1423652.601538984</v>
       </c>
     </row>
     <row r="3">
@@ -26139,7 +26139,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>26903.62939836207</v>
+        <v>2745998.493888208</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>40049.69665433532</v>
+        <v>4068344.386237433</v>
       </c>
     </row>
     <row r="5">
@@ -26155,7 +26155,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>55122.75796829072</v>
+        <v>5324140.472928916</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>70125.92138182712</v>
+        <v>6565936.71291488</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>85128.76802768675</v>
+        <v>7807669.916133163</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>100770.717565183</v>
+        <v>9069752.155421156</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>116310.4106400176</v>
+        <v>10311485.35863943</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>132530.9115533922</v>
+        <v>11451840.52003604</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>147884.937870327</v>
+        <v>12694738.05684023</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>163238.9641872618</v>
+        <v>13937635.59364443</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26219,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>178148.360673868</v>
+        <v>15166185.73941128</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>193128.6800257672</v>
+        <v>16408531.76387374</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26235,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>208298.3011481943</v>
+        <v>17625182.69611035</v>
       </c>
     </row>
     <row r="16">
@@ -26243,7 +26243,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>224634.2616421445</v>
+        <v>18547402.21430577</v>
       </c>
     </row>
   </sheetData>
